--- a/Invertieren1.xlsx
+++ b/Invertieren1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlvi2\OneDrive\Desktop\Physik\Fortgeschr. Praktikum\V51---Operationsverst-rker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30FEA0E-CE1C-47C2-B5CC-059A6CE4F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8B0A1-3F5B-460D-B001-920234DE1EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80D680EB-C002-4F7A-A321-F86B6DBC462B}"/>
+    <workbookView xWindow="10665" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{80D680EB-C002-4F7A-A321-F86B6DBC462B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">f in Hz </t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Phasen in rad</t>
+  </si>
+  <si>
+    <t>ampUi</t>
   </si>
 </sst>
 </file>
@@ -83,10 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -424,253 +426,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189DDAD7-F356-418D-9895-88471395B3A1}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2">
         <v>19.5</v>
       </c>
       <c r="C2">
+        <v>0.21</v>
+      </c>
+      <c r="D2">
         <v>180</v>
       </c>
-      <c r="D2" s="3">
-        <f>C2/180*3.14159265358979</f>
+      <c r="E2" s="2">
+        <f>D2/180*3.14159265358979</f>
         <v>3.14159265358979</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
       <c r="B3">
         <v>19.5</v>
       </c>
       <c r="C3">
+        <v>0.21</v>
+      </c>
+      <c r="D3">
         <v>180</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D16" si="0">C3/180*3.14159265358979</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E16" si="0">D3/180*3.14159265358979</f>
         <v>3.14159265358979</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4">
         <v>19.5</v>
       </c>
       <c r="C4">
+        <v>0.21</v>
+      </c>
+      <c r="D4">
         <v>180</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>3.14159265358979</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>120</v>
       </c>
       <c r="B5">
         <v>19.5</v>
       </c>
       <c r="C5">
+        <v>0.21</v>
+      </c>
+      <c r="D5">
         <v>180</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>3.14159265358979</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>240</v>
       </c>
       <c r="B6">
         <v>19.5</v>
       </c>
       <c r="C6">
+        <v>0.21</v>
+      </c>
+      <c r="D6">
         <v>180</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>3.14159265358979</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>480</v>
       </c>
       <c r="B7">
         <v>19.5</v>
       </c>
       <c r="C7">
+        <v>0.21</v>
+      </c>
+      <c r="D7">
         <v>180</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>3.14159265358979</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>960</v>
       </c>
       <c r="B8">
         <v>19.5</v>
       </c>
       <c r="C8">
+        <v>0.21</v>
+      </c>
+      <c r="D8">
         <v>175</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>3.0543261909900736</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1920</v>
       </c>
       <c r="B9">
         <v>19.2</v>
       </c>
       <c r="C9">
+        <v>0.21</v>
+      </c>
+      <c r="D9">
         <v>170</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>2.9670597283903573</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3840</v>
       </c>
       <c r="B10">
         <v>18.2</v>
       </c>
       <c r="C10">
+        <v>0.21</v>
+      </c>
+      <c r="D10">
         <v>157</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>2.7401669256310948</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>7680</v>
       </c>
       <c r="B11">
         <v>14.9</v>
       </c>
       <c r="C11">
+        <v>0.21</v>
+      </c>
+      <c r="D11">
         <v>134</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>2.3387411976723991</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>15280</v>
       </c>
       <c r="B12">
         <v>8.8000000000000007</v>
       </c>
       <c r="C12">
+        <v>0.21</v>
+      </c>
+      <c r="D12">
         <v>105</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>1.8325957145940444</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>30480</v>
       </c>
       <c r="B13">
         <v>5.0999999999999996</v>
       </c>
       <c r="C13">
+        <v>0.23</v>
+      </c>
+      <c r="D13">
         <v>98</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>1.7104226669544411</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>60000</v>
       </c>
       <c r="B14">
         <v>2.9</v>
       </c>
       <c r="C14">
+        <v>0.23</v>
+      </c>
+      <c r="D14">
         <v>92</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.6057029118347814</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>120000</v>
       </c>
       <c r="B15">
         <v>1.6</v>
       </c>
       <c r="C15">
+        <v>0.23</v>
+      </c>
+      <c r="D15">
         <v>82</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.4311699866353487</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>240000</v>
       </c>
       <c r="B16">
         <v>1.2</v>
       </c>
       <c r="C16">
+        <v>0.23</v>
+      </c>
+      <c r="D16">
         <v>70</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.2217304763960295</v>
       </c>
